--- a/Test4.xlsx
+++ b/Test4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7658AEA-E86C-4CF7-9CA9-796A9E27EEBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2BC056-29BE-471F-9398-0FB2684359CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -247,7 +247,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J20" totalsRowShown="0">
-  <autoFilter ref="A1:J20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:J20" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -551,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +633,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -641,7 +647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -655,7 +661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>21</v>
       </c>
@@ -669,7 +675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>21</v>
       </c>
@@ -683,7 +689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>21</v>
       </c>
@@ -697,7 +703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>28</v>
       </c>
@@ -734,7 +740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>18</v>
       </c>
@@ -771,7 +777,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>17</v>
       </c>
@@ -785,7 +791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>21</v>
       </c>
@@ -799,7 +805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>21</v>
       </c>
@@ -813,7 +819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>21</v>
       </c>
@@ -827,7 +833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>21</v>
       </c>
@@ -841,7 +847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>28</v>
       </c>
@@ -852,7 +858,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -874,8 +880,11 @@
       <c r="H18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>18</v>
       </c>
@@ -886,7 +895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>22</v>
       </c>
